--- a/excelconfig/config.xlsx
+++ b/excelconfig/config.xlsx
@@ -4,32 +4,37 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ActorList" sheetId="1" r:id="rId1"/>
-    <sheet name="MapList" sheetId="5" r:id="rId2"/>
-    <sheet name="LevelList" sheetId="6" r:id="rId3"/>
-    <sheet name="AgeList" sheetId="4" r:id="rId4"/>
-    <sheet name="SexList" sheetId="3" r:id="rId5"/>
-    <sheet name="JobTypeList" sheetId="2" r:id="rId6"/>
-    <sheet name="TaskList" sheetId="7" r:id="rId7"/>
-    <sheet name="RewardList" sheetId="10" r:id="rId8"/>
-    <sheet name="DialogueList" sheetId="9" r:id="rId9"/>
-    <sheet name="TaskTypeList" sheetId="8" r:id="rId10"/>
-    <sheet name="ItemList" sheetId="11" r:id="rId11"/>
-    <sheet name="AbilityList" sheetId="12" r:id="rId12"/>
+    <sheet name="Player" sheetId="16" r:id="rId2"/>
+    <sheet name="VIPList" sheetId="17" r:id="rId3"/>
+    <sheet name="MapList" sheetId="5" r:id="rId4"/>
+    <sheet name="LevelList" sheetId="6" r:id="rId5"/>
+    <sheet name="AgeList" sheetId="4" r:id="rId6"/>
+    <sheet name="SexList" sheetId="3" r:id="rId7"/>
+    <sheet name="JobTypeList" sheetId="2" r:id="rId8"/>
+    <sheet name="TaskList" sheetId="7" r:id="rId9"/>
+    <sheet name="RewardList" sheetId="10" r:id="rId10"/>
+    <sheet name="DialogueList" sheetId="9" r:id="rId11"/>
+    <sheet name="TaskTypeList" sheetId="8" r:id="rId12"/>
+    <sheet name="ItemList" sheetId="11" r:id="rId13"/>
+    <sheet name="EquitList" sheetId="15" r:id="rId14"/>
+    <sheet name="AddEffectList" sheetId="13" r:id="rId15"/>
+    <sheet name="MinusEffectList" sheetId="14" r:id="rId16"/>
+    <sheet name="AbilityList" sheetId="12" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ActorList!$C$3:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">JobTypeList!$A$3:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">JobTypeList!$A$3:$A$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>ActorID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,35 +266,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AbilityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffectAiblityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbilityID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddEffectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinusEffectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName3</t>
+  </si>
+  <si>
+    <t>ItemName4</t>
+  </si>
+  <si>
+    <t>ItemName5</t>
+  </si>
+  <si>
+    <t>ItemName6</t>
   </si>
   <si>
     <t>AbilityName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbilityAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AffectAiblityID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbilityID</t>
+    <t>AbilityName1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityName5</t>
+  </si>
+  <si>
+    <t>AbilityName6</t>
+  </si>
+  <si>
+    <t>AbilityName7</t>
+  </si>
+  <si>
+    <t>AbilityName8</t>
+  </si>
+  <si>
+    <t>AbilityName2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityName3</t>
+  </si>
+  <si>
+    <t>AbilityName4</t>
+  </si>
+  <si>
+    <t>EquitID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquitName1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquitName2</t>
+  </si>
+  <si>
+    <t>EquitName3</t>
+  </si>
+  <si>
+    <t>EquitName4</t>
+  </si>
+  <si>
+    <t>EquitName5</t>
+  </si>
+  <si>
+    <t>EquitName6</t>
+  </si>
+  <si>
+    <t>EquitName7</t>
+  </si>
+  <si>
+    <t>PlayerID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +480,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -333,8 +514,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,10 +827,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
@@ -653,7 +838,7 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,10 +852,10 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -684,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -698,7 +883,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -709,7 +894,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -717,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -725,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -733,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -741,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -758,12 +943,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -771,30 +975,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -805,28 +999,184 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>10001</v>
+      </c>
+      <c r="D5">
+        <v>10001</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>10002</v>
+      </c>
+      <c r="D6">
+        <v>10002</v>
+      </c>
+      <c r="E6">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>10003</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>10004</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>10005</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10005</v>
       </c>
     </row>
   </sheetData>
@@ -835,38 +1185,559 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>10000</v>
-      </c>
-      <c r="B3">
-        <v>10000</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -877,276 +1748,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>10000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>10000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>10000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>10000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>10000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>10000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>10000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>10000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>10000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>10000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>10000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>10000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1154,44 +1763,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="B3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>10001</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1202,44 +1803,273 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10000</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>10000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1253,45 +2083,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>10000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1302,13 +2128,113 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
@@ -1320,7 +2246,7 @@
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1349,7 +2275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1376,62 +2302,6 @@
       </c>
       <c r="I2" t="s">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
